--- a/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
   </bookViews>
   <sheets>
-    <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
+    <sheet name="Input" sheetId="9" r:id="rId1"/>
     <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
     <sheet name="Transactions" sheetId="18" r:id="rId4"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
   <si>
-    <t>transactiondate</t>
-  </si>
-  <si>
     <t>Repayment</t>
   </si>
   <si>
@@ -101,6 +95,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -175,9 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -186,6 +192,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -502,15 +524,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>42019</v>
@@ -540,22 +562,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -643,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,54 +686,54 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="L1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
       <c r="D2" s="6"/>
@@ -733,14 +755,14 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="6"/>
@@ -772,18 +794,18 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>96.96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
       <c r="D4" s="6"/>
@@ -815,18 +837,18 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>42095</v>
       </c>
       <c r="D5" s="6"/>
@@ -858,18 +880,18 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>42125</v>
       </c>
       <c r="D6" s="6"/>
@@ -901,18 +923,18 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>42156</v>
       </c>
       <c r="D7" s="6"/>
@@ -944,18 +966,18 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>42186</v>
       </c>
       <c r="D8" s="6"/>
@@ -987,18 +1009,18 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>42217</v>
       </c>
       <c r="D9" s="6"/>
@@ -1030,18 +1052,18 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="O9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>42248</v>
       </c>
       <c r="D10" s="6"/>
@@ -1073,18 +1095,18 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>42278</v>
       </c>
       <c r="D11" s="6"/>
@@ -1116,18 +1138,18 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>42309</v>
       </c>
       <c r="D12" s="6"/>
@@ -1159,18 +1181,18 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>42339</v>
       </c>
       <c r="D13" s="6"/>
@@ -1202,18 +1224,18 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
       <c r="D14" s="6"/>
@@ -1245,7 +1267,7 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>791.88</v>
       </c>
     </row>
@@ -1256,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1273,82 +1295,100 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13">
         <v>42019</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="11">
         <v>841.69</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="11">
         <v>46.03</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>9158.31</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
         <v>10000</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -116,13 +116,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -170,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -188,9 +183,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -512,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -687,47 +679,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1278,117 +1270,117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>42019</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="11">
-        <v>841.69</v>
-      </c>
-      <c r="G2" s="11">
-        <v>46.03</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>9158.31</v>
-      </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E2" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="10">
+        <v>790.76</v>
+      </c>
+      <c r="G2" s="10">
+        <v>96.96</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9209.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>10000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -211,6 +216,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -258,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +299,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,11 +716,12 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -716,14 +759,15 @@
       <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="C2" s="7">
         <v>42005</v>
@@ -746,8 +790,9 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -783,14 +828,15 @@
       <c r="M3" s="6">
         <v>887.72</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>96.96</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -826,14 +872,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -869,14 +916,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -912,14 +960,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -955,14 +1004,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -998,14 +1048,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1041,14 +1092,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1084,14 +1136,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1127,14 +1180,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1170,14 +1224,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1213,14 +1268,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1256,10 +1312,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>791.88</v>
       </c>
     </row>
@@ -1272,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/582-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -120,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -170,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -205,6 +200,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +297,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +666,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -715,82 +679,87 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7">
         <v>42005</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="4">
         <v>10000</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6">
         <v>0</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -820,18 +789,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>984.68</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="6">
         <v>887.72</v>
       </c>
-      <c r="M3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="N3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <v>96.96</v>
+      </c>
       <c r="O3" s="6">
         <v>0</v>
       </c>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6">
         <v>96.96</v>
       </c>
@@ -869,13 +839,14 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
       <c r="O4" s="6">
         <v>0</v>
       </c>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6">
         <v>887.72</v>
       </c>
@@ -913,13 +884,14 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
       <c r="O5" s="6">
         <v>0</v>
       </c>
+      <c r="P5" s="6"/>
       <c r="Q5" s="6">
         <v>887.72</v>
       </c>
@@ -957,13 +929,14 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
       <c r="O6" s="6">
         <v>0</v>
       </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="6">
         <v>887.72</v>
       </c>
@@ -1001,13 +974,14 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
       <c r="O7" s="6">
         <v>0</v>
       </c>
+      <c r="P7" s="6"/>
       <c r="Q7" s="6">
         <v>887.72</v>
       </c>
@@ -1045,13 +1019,14 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
       <c r="O8" s="6">
         <v>0</v>
       </c>
+      <c r="P8" s="6"/>
       <c r="Q8" s="6">
         <v>887.72</v>
       </c>
@@ -1089,13 +1064,14 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
       <c r="O9" s="6">
         <v>0</v>
       </c>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6">
         <v>887.72</v>
       </c>
@@ -1133,13 +1109,14 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
       <c r="O10" s="6">
         <v>0</v>
       </c>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6">
         <v>887.72</v>
       </c>
@@ -1177,13 +1154,14 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
       <c r="O11" s="6">
         <v>0</v>
       </c>
+      <c r="P11" s="6"/>
       <c r="Q11" s="6">
         <v>887.72</v>
       </c>
@@ -1221,13 +1199,14 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
       <c r="O12" s="6">
         <v>0</v>
       </c>
+      <c r="P12" s="6"/>
       <c r="Q12" s="6">
         <v>887.72</v>
       </c>
@@ -1265,13 +1244,14 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
       <c r="O13" s="6">
         <v>0</v>
       </c>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6">
         <v>887.72</v>
       </c>
@@ -1309,13 +1289,14 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
       <c r="O14" s="6">
         <v>0</v>
       </c>
+      <c r="P14" s="6"/>
       <c r="Q14" s="6">
         <v>791.88</v>
       </c>
